--- a/长龙航空-实施计划.xlsx
+++ b/长龙航空-实施计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779"/>
@@ -38,15 +38,16 @@
     <definedName name="Z_EA12A2DB_14AE_4B52_98B2_167B88CF1EFE_.wvu.FilterData" localSheetId="0" hidden="1">项目实施计划!$O$2:$O$58</definedName>
     <definedName name="Z_EA12A2DB_14AE_4B52_98B2_167B88CF1EFE_.wvu.PrintArea" localSheetId="0" hidden="1">项目实施计划!$C$2:$AX$122</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="王登峰 - 个人视图" guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="746" activeSheetId="8"/>
+    <customWorkbookView name="linkage - 个人视图" guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="1"/>
+    <customWorkbookView name="zhanghc - 个人视图" guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="7"/>
+    <customWorkbookView name="XTZ - 个人视图" guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="10"/>
+    <customWorkbookView name="Microsoft - 个人视图" guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="786" tabRatio="779" activeSheetId="11"/>
     <customWorkbookView name="周顺 - 个人视图" guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="531" tabRatio="779" activeSheetId="12"/>
-    <customWorkbookView name="Microsoft - 个人视图" guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="786" tabRatio="779" activeSheetId="11"/>
-    <customWorkbookView name="XTZ - 个人视图" guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="10"/>
-    <customWorkbookView name="zhanghc - 个人视图" guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="7"/>
-    <customWorkbookView name="linkage - 个人视图" guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="1"/>
-    <customWorkbookView name="王登峰 - 个人视图" guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="746" activeSheetId="8"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -998,10 +999,7 @@
   <si>
     <t>用户测试</t>
     <rPh sb="2" eb="4">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュンビ</t>
+      <t>カイハツジュンビ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1352,7 +1350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]General"/>
@@ -2918,36 +2916,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2956,9 +2924,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2966,38 +2931,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3030,6 +2968,66 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="265">
     <cellStyle name="Excel Built-in Hyperlink" xfId="7"/>
@@ -3300,74 +3298,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5567,6 +5497,94 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="1933574"/>
+          <a:ext cx="1466850" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>后台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485773</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -6093,7 +6111,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
-            <a:t>李益</a:t>
+            <a:t>李义</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
         </a:p>
@@ -6151,7 +6169,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
-            <a:t>谢鹏</a:t>
+            <a:t>杨鹏</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
         </a:p>
@@ -6731,7 +6749,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
-            <a:t>王雷磊</a:t>
+            <a:t>王雪磊</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
         </a:p>
@@ -6993,94 +7011,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="矩形 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="1933574"/>
-          <a:ext cx="1466850" cy="3057525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="30000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>后台</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>T</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7092,7 +7022,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7386,15 +7316,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CC122"/>
+  <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7464,94 +7394,94 @@
       <c r="AX1" s="4"/>
     </row>
     <row r="2" spans="1:51" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="92">
+      <c r="R2" s="112">
         <v>41463</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="87">
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="101">
         <v>41487</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
       <c r="AY2" s="6"/>
     </row>
     <row r="3" spans="1:51" s="7" customFormat="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="85"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="110"/>
       <c r="R3" s="8">
         <v>8</v>
       </c>
@@ -8114,7 +8044,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="102" t="s">
+      <c r="N12" s="106" t="s">
         <v>179</v>
       </c>
       <c r="O12" s="48" t="s">
@@ -8172,7 +8102,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="103"/>
+      <c r="N13" s="107"/>
       <c r="O13" s="48" t="s">
         <v>191</v>
       </c>
@@ -8228,7 +8158,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="103"/>
+      <c r="N14" s="107"/>
       <c r="O14" s="48" t="s">
         <v>191</v>
       </c>
@@ -8284,7 +8214,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="103"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="48" t="s">
         <v>191</v>
       </c>
@@ -8340,7 +8270,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="103"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="48" t="s">
         <v>191</v>
       </c>
@@ -8396,7 +8326,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="103"/>
+      <c r="N17" s="107"/>
       <c r="O17" s="48" t="s">
         <v>191</v>
       </c>
@@ -8452,7 +8382,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="103"/>
+      <c r="N18" s="107"/>
       <c r="O18" s="48" t="s">
         <v>191</v>
       </c>
@@ -8508,7 +8438,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="103"/>
+      <c r="N19" s="107"/>
       <c r="O19" s="48" t="s">
         <v>191</v>
       </c>
@@ -8564,7 +8494,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="103"/>
+      <c r="N20" s="107"/>
       <c r="O20" s="48" t="s">
         <v>191</v>
       </c>
@@ -8620,7 +8550,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="103"/>
+      <c r="N21" s="107"/>
       <c r="O21" s="48" t="s">
         <v>191</v>
       </c>
@@ -8676,7 +8606,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="104"/>
+      <c r="N22" s="108"/>
       <c r="O22" s="48" t="s">
         <v>191</v>
       </c>
@@ -8896,7 +8826,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="79" t="s">
+      <c r="N26" s="103" t="s">
         <v>178</v>
       </c>
       <c r="O26" s="48"/>
@@ -8952,7 +8882,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="80"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="48" t="s">
         <v>173</v>
       </c>
@@ -9008,7 +8938,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="80"/>
+      <c r="N28" s="104"/>
       <c r="O28" s="48" t="s">
         <v>173</v>
       </c>
@@ -9064,7 +8994,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="80"/>
+      <c r="N29" s="104"/>
       <c r="O29" s="48" t="s">
         <v>174</v>
       </c>
@@ -9120,7 +9050,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="80"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="48" t="s">
         <v>174</v>
       </c>
@@ -9176,7 +9106,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="80"/>
+      <c r="N31" s="104"/>
       <c r="O31" s="48" t="s">
         <v>173</v>
       </c>
@@ -9232,7 +9162,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="81"/>
+      <c r="N32" s="105"/>
       <c r="O32" s="48" t="s">
         <v>174</v>
       </c>
@@ -9274,59 +9204,59 @@
     </row>
     <row r="33" spans="1:50" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="78"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108" t="s">
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="111" t="s">
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="114"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="115"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="116"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="116"/>
-      <c r="AP33" s="118"/>
-      <c r="AQ33" s="117"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="120"/>
-      <c r="AT33" s="118"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="117"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="96"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="97"/>
+      <c r="AR33" s="99"/>
+      <c r="AS33" s="100"/>
+      <c r="AT33" s="98"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="97"/>
     </row>
     <row r="34" spans="1:50" ht="18" customHeight="1">
       <c r="A34" s="78"/>
@@ -9452,7 +9382,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="16"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="79"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="48" t="s">
         <v>140</v>
       </c>
@@ -9508,7 +9438,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="16"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="80"/>
+      <c r="N37" s="104"/>
       <c r="O37" s="48"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="19"/>
@@ -9562,7 +9492,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="80"/>
+      <c r="N38" s="104"/>
       <c r="O38" s="48"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="19"/>
@@ -9616,7 +9546,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="80"/>
+      <c r="N39" s="104"/>
       <c r="O39" s="48" t="s">
         <v>173</v>
       </c>
@@ -9672,7 +9602,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="16"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="80"/>
+      <c r="N40" s="104"/>
       <c r="O40" s="48" t="s">
         <v>173</v>
       </c>
@@ -9728,7 +9658,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="16"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="80"/>
+      <c r="N41" s="104"/>
       <c r="O41" s="48" t="s">
         <v>174</v>
       </c>
@@ -9784,7 +9714,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="17"/>
-      <c r="N42" s="80"/>
+      <c r="N42" s="104"/>
       <c r="O42" s="48" t="s">
         <v>174</v>
       </c>
@@ -9840,7 +9770,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
-      <c r="N43" s="80"/>
+      <c r="N43" s="104"/>
       <c r="O43" s="48" t="s">
         <v>173</v>
       </c>
@@ -9896,7 +9826,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="16"/>
       <c r="M44" s="17"/>
-      <c r="N44" s="80"/>
+      <c r="N44" s="104"/>
       <c r="O44" s="48" t="s">
         <v>174</v>
       </c>
@@ -9952,7 +9882,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
       <c r="M45" s="17"/>
-      <c r="N45" s="80"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="48" t="s">
         <v>149</v>
       </c>
@@ -10008,7 +9938,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="81"/>
+      <c r="N46" s="105"/>
       <c r="O46" s="48" t="s">
         <v>140</v>
       </c>
@@ -10172,10 +10102,10 @@
       <c r="K49" s="15"/>
       <c r="L49" s="16"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="79" t="s">
+      <c r="N49" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="O49" s="93" t="s">
+      <c r="O49" s="82" t="s">
         <v>150</v>
       </c>
       <c r="P49" s="18"/>
@@ -10230,7 +10160,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="80"/>
+      <c r="N50" s="104"/>
       <c r="O50" s="48" t="s">
         <v>148</v>
       </c>
@@ -10286,7 +10216,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
-      <c r="N51" s="81"/>
+      <c r="N51" s="105"/>
       <c r="O51" s="48" t="s">
         <v>140</v>
       </c>
@@ -10450,10 +10380,10 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="79" t="s">
+      <c r="N54" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="O54" s="79" t="s">
+      <c r="O54" s="103" t="s">
         <v>147</v>
       </c>
       <c r="P54" s="18"/>
@@ -10508,8 +10438,8 @@
       <c r="K55" s="15"/>
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="20"/>
@@ -10562,8 +10492,8 @@
       <c r="K56" s="15"/>
       <c r="L56" s="16"/>
       <c r="M56" s="17"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20"/>
@@ -10616,8 +10546,8 @@
       <c r="K57" s="15"/>
       <c r="L57" s="16"/>
       <c r="M57" s="17"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20"/>
@@ -10670,8 +10600,8 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
@@ -10879,7 +10809,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C62" s="79"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="14" t="s">
         <v>7</v>
       </c>
@@ -10942,7 +10872,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C63" s="80"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="26"/>
       <c r="E63" s="14" t="s">
         <v>42</v>
@@ -11001,7 +10931,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C64" s="80"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="26"/>
       <c r="E64" s="14" t="s">
         <v>41</v>
@@ -11058,7 +10988,7 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C65" s="80"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="14" t="s">
         <v>13</v>
       </c>
@@ -11121,7 +11051,7 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C66" s="80"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="54"/>
       <c r="E66" s="14"/>
       <c r="F66" s="15"/>
@@ -11176,7 +11106,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C67" s="80"/>
+      <c r="C67" s="104"/>
       <c r="D67" s="14" t="s">
         <v>8</v>
       </c>
@@ -11239,7 +11169,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C68" s="80"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="54"/>
       <c r="E68" s="14"/>
       <c r="F68" s="15"/>
@@ -11294,7 +11224,7 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C69" s="80"/>
+      <c r="C69" s="104"/>
       <c r="D69" s="14" t="s">
         <v>9</v>
       </c>
@@ -11359,8 +11289,8 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="79"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="103"/>
       <c r="E70" s="14" t="s">
         <v>18</v>
       </c>
@@ -11422,8 +11352,8 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
       <c r="E71" s="14" t="s">
         <v>54</v>
       </c>
@@ -11485,8 +11415,8 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
       <c r="E72" s="14" t="s">
         <v>16</v>
       </c>
@@ -11548,8 +11478,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="14" t="s">
         <v>17</v>
       </c>
@@ -11671,7 +11601,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="47"/>
-      <c r="D75" s="79"/>
+      <c r="D75" s="103"/>
       <c r="E75" s="14" t="s">
         <v>11</v>
       </c>
@@ -11736,7 +11666,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="47"/>
-      <c r="D76" s="80"/>
+      <c r="D76" s="104"/>
       <c r="E76" s="14" t="s">
         <v>12</v>
       </c>
@@ -11799,7 +11729,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="47"/>
-      <c r="D77" s="81"/>
+      <c r="D77" s="105"/>
       <c r="E77" s="14"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -14326,31 +14256,21 @@
   </sheetData>
   <autoFilter ref="O2:O58"/>
   <customSheetViews>
-    <customSheetView guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+    <customSheetView guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
-      <autoFilter ref="O2:O60"/>
+      <autoFilter ref="O2:O56"/>
     </customSheetView>
-    <customSheetView guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+    <customSheetView guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId2"/>
-      <headerFooter alignWithMargins="0">
-        <oddHeader>&amp;C&amp;A</oddHeader>
-      </headerFooter>
-      <autoFilter ref="O2:O60"/>
-    </customSheetView>
-    <customSheetView guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
-      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
@@ -14360,41 +14280,44 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId3"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;C&amp;A</oddHeader>
+      </headerFooter>
+      <autoFilter ref="O2:O56"/>
+    </customSheetView>
+    <customSheetView guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
       <autoFilter ref="O2:O56"/>
     </customSheetView>
-    <customSheetView guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+    <customSheetView guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
-      <autoFilter ref="O2:O56"/>
+      <autoFilter ref="O2:O60"/>
     </customSheetView>
-    <customSheetView guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
+    <customSheetView guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId6"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
-      <autoFilter ref="O2:O56"/>
+      <autoFilter ref="O2:O60"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="AP2:AX2"/>
-    <mergeCell ref="N54:N58"/>
-    <mergeCell ref="O54:O58"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="N12:N22"/>
-    <mergeCell ref="N26:N32"/>
-    <mergeCell ref="N36:N46"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
@@ -14407,6 +14330,13 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C62:C73"/>
     <mergeCell ref="D70:D73"/>
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="N54:N58"/>
+    <mergeCell ref="O54:O58"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="N12:N22"/>
+    <mergeCell ref="N26:N32"/>
+    <mergeCell ref="N36:N46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -14419,11 +14349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14438,11 +14368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14456,412 +14386,409 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="85" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="90">
+      <c r="B5" s="80">
         <v>1</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="90"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="90">
+      <c r="B6" s="80">
         <v>2</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="90"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="90">
+      <c r="B7" s="80">
         <v>3</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="91" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="90"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="90">
+      <c r="B8" s="80">
         <v>4</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="90" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="91" t="s">
+      <c r="F8" s="118"/>
+      <c r="G8" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="90">
+      <c r="B9" s="80">
         <v>5</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="90" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="91" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="90">
+      <c r="B10" s="80">
         <v>6</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="90" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="90"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="90">
+      <c r="B11" s="80">
         <v>7</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="118"/>
+      <c r="G11" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="90"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="90">
+      <c r="B12" s="80">
         <v>8</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="90" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="91" t="s">
+      <c r="F12" s="118"/>
+      <c r="G12" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="90"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="90">
+      <c r="B13" s="80">
         <v>9</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="91" t="s">
+      <c r="F13" s="118"/>
+      <c r="G13" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="90"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="90">
+      <c r="B14" s="80">
         <v>10</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="90" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="118"/>
+      <c r="G14" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="90"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="90">
+      <c r="B15" s="80">
         <v>11</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="91" t="s">
+      <c r="F15" s="118"/>
+      <c r="G15" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="90"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="90">
+      <c r="B16" s="80">
         <v>12</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="91" t="s">
+      <c r="C16" s="118"/>
+      <c r="D16" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="119"/>
+      <c r="G16" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="90"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="90">
+      <c r="B17" s="80">
         <v>13</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="91" t="s">
+      <c r="G17" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="90"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="90">
+      <c r="B18" s="80">
         <v>14</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="90" t="s">
+      <c r="C18" s="120"/>
+      <c r="D18" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="90" t="s">
+      <c r="F18" s="119"/>
+      <c r="G18" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="90"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="90">
+      <c r="B19" s="80">
         <v>15</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="91" t="s">
+      <c r="H19" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="90">
+      <c r="B20" s="80">
         <v>16</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="90" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="90" t="s">
+      <c r="F20" s="118"/>
+      <c r="G20" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="90">
+      <c r="B21" s="80">
         <v>17</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="90" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="90" t="s">
+      <c r="F21" s="118"/>
+      <c r="G21" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="H21" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="90">
+      <c r="B22" s="80">
         <v>18</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="90" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="90" t="s">
+      <c r="F22" s="118"/>
+      <c r="G22" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="91" t="s">
+      <c r="H22" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="90">
+      <c r="B23" s="80">
         <v>19</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="90" t="s">
+      <c r="C23" s="116"/>
+      <c r="D23" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="90" t="s">
+      <c r="F23" s="118"/>
+      <c r="G23" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="90">
+      <c r="B24" s="80">
         <v>20</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="90" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="90" t="s">
+      <c r="F24" s="119"/>
+      <c r="G24" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="81" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H24">
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A4:H24"/>
   <mergeCells count="9">
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="F6:F9"/>

--- a/长龙航空-实施计划.xlsx
+++ b/长龙航空-实施计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目实施计划" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
   <si>
     <t>主担当</t>
     <phoneticPr fontId="4"/>
@@ -1345,6 +1345,10 @@
     <t>负责人
 参见人员体制</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>前台T2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2706,7 +2710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3026,6 +3030,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7322,9 +7329,9 @@
   </sheetPr>
   <dimension ref="A1:AY122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO9" sqref="AO9"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -14371,8 +14378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14447,7 +14454,7 @@
       <c r="E6" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="121" t="s">
         <v>194</v>
       </c>
       <c r="G6" s="80" t="s">
@@ -14466,7 +14473,7 @@
       <c r="E7" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="81" t="s">
         <v>132</v>
       </c>
@@ -14483,7 +14490,7 @@
       <c r="E8" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="81" t="s">
         <v>132</v>
       </c>
@@ -14500,7 +14507,7 @@
       <c r="E9" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="119"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="81" t="s">
         <v>132</v>
       </c>
@@ -14517,9 +14524,7 @@
       <c r="E10" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="117" t="s">
-        <v>195</v>
-      </c>
+      <c r="F10" s="121"/>
       <c r="G10" s="80" t="s">
         <v>130</v>
       </c>
@@ -14538,7 +14543,9 @@
       <c r="E11" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="118"/>
+      <c r="F11" s="121" t="s">
+        <v>197</v>
+      </c>
       <c r="G11" s="81" t="s">
         <v>132</v>
       </c>
@@ -14555,7 +14562,7 @@
       <c r="E12" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="81" t="s">
         <v>132</v>
       </c>
@@ -14574,7 +14581,7 @@
       <c r="E13" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="118"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="81" t="s">
         <v>132</v>
       </c>
@@ -14591,7 +14598,7 @@
       <c r="E14" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="118"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="80" t="s">
         <v>130</v>
       </c>
@@ -14608,7 +14615,7 @@
       <c r="E15" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="118"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="81" t="s">
         <v>132</v>
       </c>
@@ -14625,7 +14632,7 @@
       <c r="E16" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="119"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="81" t="s">
         <v>132</v>
       </c>
@@ -14791,14 +14798,14 @@
   <autoFilter ref="A4:H24"/>
   <mergeCells count="9">
     <mergeCell ref="C19:C24"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F6:F10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/长龙航空-实施计划.xlsx
+++ b/长龙航空-实施计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目实施计划" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="周顺 - 个人视图" guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="531" tabRatio="779" activeSheetId="12"/>
+    <customWorkbookView name="Microsoft - 个人视图" guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="786" tabRatio="779" activeSheetId="11"/>
+    <customWorkbookView name="XTZ - 个人视图" guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="10"/>
+    <customWorkbookView name="zhanghc - 个人视图" guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="7"/>
+    <customWorkbookView name="linkage - 个人视图" guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="1"/>
     <customWorkbookView name="王登峰 - 个人视图" guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="746" activeSheetId="8"/>
-    <customWorkbookView name="linkage - 个人视图" guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="1"/>
-    <customWorkbookView name="zhanghc - 个人视图" guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="7"/>
-    <customWorkbookView name="XTZ - 个人视图" guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="10"/>
-    <customWorkbookView name="Microsoft - 个人视图" guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="786" tabRatio="779" activeSheetId="11"/>
-    <customWorkbookView name="周顺 - 个人视图" guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="531" tabRatio="779" activeSheetId="12"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2972,6 +2971,36 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2979,15 +3008,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2996,37 +3016,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7018,6 +7017,64 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="4648201"/>
+          <a:ext cx="1219200" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>谢凌波（兼）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7401,94 +7458,94 @@
       <c r="AX1" s="4"/>
     </row>
     <row r="2" spans="1:51" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="115" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="114" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="N2" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="111" t="s">
+      <c r="O2" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="109" t="s">
+      <c r="Q2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="112">
+      <c r="R2" s="107">
         <v>41463</v>
       </c>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="101">
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="111">
         <v>41487</v>
       </c>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
       <c r="AY2" s="6"/>
     </row>
     <row r="3" spans="1:51" s="7" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="110"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="105"/>
       <c r="R3" s="8">
         <v>8</v>
       </c>
@@ -8051,7 +8108,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="106" t="s">
+      <c r="N12" s="113" t="s">
         <v>179</v>
       </c>
       <c r="O12" s="48" t="s">
@@ -8109,7 +8166,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="107"/>
+      <c r="N13" s="114"/>
       <c r="O13" s="48" t="s">
         <v>191</v>
       </c>
@@ -8165,7 +8222,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="107"/>
+      <c r="N14" s="114"/>
       <c r="O14" s="48" t="s">
         <v>191</v>
       </c>
@@ -8221,7 +8278,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="107"/>
+      <c r="N15" s="114"/>
       <c r="O15" s="48" t="s">
         <v>191</v>
       </c>
@@ -8277,7 +8334,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="107"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="48" t="s">
         <v>191</v>
       </c>
@@ -8333,7 +8390,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="107"/>
+      <c r="N17" s="114"/>
       <c r="O17" s="48" t="s">
         <v>191</v>
       </c>
@@ -8389,7 +8446,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="107"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="48" t="s">
         <v>191</v>
       </c>
@@ -8445,7 +8502,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="107"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="48" t="s">
         <v>191</v>
       </c>
@@ -8501,7 +8558,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="107"/>
+      <c r="N20" s="114"/>
       <c r="O20" s="48" t="s">
         <v>191</v>
       </c>
@@ -8557,7 +8614,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="107"/>
+      <c r="N21" s="114"/>
       <c r="O21" s="48" t="s">
         <v>191</v>
       </c>
@@ -8613,7 +8670,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="108"/>
+      <c r="N22" s="115"/>
       <c r="O22" s="48" t="s">
         <v>191</v>
       </c>
@@ -8833,7 +8890,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="103" t="s">
+      <c r="N26" s="101" t="s">
         <v>178</v>
       </c>
       <c r="O26" s="48"/>
@@ -8889,7 +8946,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="104"/>
+      <c r="N27" s="102"/>
       <c r="O27" s="48" t="s">
         <v>173</v>
       </c>
@@ -8945,7 +9002,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="104"/>
+      <c r="N28" s="102"/>
       <c r="O28" s="48" t="s">
         <v>173</v>
       </c>
@@ -9001,7 +9058,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="104"/>
+      <c r="N29" s="102"/>
       <c r="O29" s="48" t="s">
         <v>174</v>
       </c>
@@ -9057,7 +9114,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="104"/>
+      <c r="N30" s="102"/>
       <c r="O30" s="48" t="s">
         <v>174</v>
       </c>
@@ -9113,7 +9170,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="104"/>
+      <c r="N31" s="102"/>
       <c r="O31" s="48" t="s">
         <v>173</v>
       </c>
@@ -9169,7 +9226,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="105"/>
+      <c r="N32" s="103"/>
       <c r="O32" s="48" t="s">
         <v>174</v>
       </c>
@@ -9389,7 +9446,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="16"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="103"/>
+      <c r="N36" s="101"/>
       <c r="O36" s="48" t="s">
         <v>140</v>
       </c>
@@ -9445,7 +9502,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="16"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="104"/>
+      <c r="N37" s="102"/>
       <c r="O37" s="48"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="19"/>
@@ -9499,7 +9556,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="104"/>
+      <c r="N38" s="102"/>
       <c r="O38" s="48"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="19"/>
@@ -9553,7 +9610,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="104"/>
+      <c r="N39" s="102"/>
       <c r="O39" s="48" t="s">
         <v>173</v>
       </c>
@@ -9609,7 +9666,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="16"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="104"/>
+      <c r="N40" s="102"/>
       <c r="O40" s="48" t="s">
         <v>173</v>
       </c>
@@ -9665,7 +9722,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="16"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="104"/>
+      <c r="N41" s="102"/>
       <c r="O41" s="48" t="s">
         <v>174</v>
       </c>
@@ -9721,7 +9778,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="17"/>
-      <c r="N42" s="104"/>
+      <c r="N42" s="102"/>
       <c r="O42" s="48" t="s">
         <v>174</v>
       </c>
@@ -9777,7 +9834,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
-      <c r="N43" s="104"/>
+      <c r="N43" s="102"/>
       <c r="O43" s="48" t="s">
         <v>173</v>
       </c>
@@ -9833,7 +9890,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="16"/>
       <c r="M44" s="17"/>
-      <c r="N44" s="104"/>
+      <c r="N44" s="102"/>
       <c r="O44" s="48" t="s">
         <v>174</v>
       </c>
@@ -9889,7 +9946,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
       <c r="M45" s="17"/>
-      <c r="N45" s="104"/>
+      <c r="N45" s="102"/>
       <c r="O45" s="48" t="s">
         <v>149</v>
       </c>
@@ -9945,7 +10002,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="105"/>
+      <c r="N46" s="103"/>
       <c r="O46" s="48" t="s">
         <v>140</v>
       </c>
@@ -10109,7 +10166,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="16"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="103" t="s">
+      <c r="N49" s="101" t="s">
         <v>152</v>
       </c>
       <c r="O49" s="82" t="s">
@@ -10167,7 +10224,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="104"/>
+      <c r="N50" s="102"/>
       <c r="O50" s="48" t="s">
         <v>148</v>
       </c>
@@ -10223,7 +10280,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
-      <c r="N51" s="105"/>
+      <c r="N51" s="103"/>
       <c r="O51" s="48" t="s">
         <v>140</v>
       </c>
@@ -10387,10 +10444,10 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="103" t="s">
+      <c r="N54" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="O54" s="103" t="s">
+      <c r="O54" s="101" t="s">
         <v>147</v>
       </c>
       <c r="P54" s="18"/>
@@ -10445,8 +10502,8 @@
       <c r="K55" s="15"/>
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="20"/>
@@ -10499,8 +10556,8 @@
       <c r="K56" s="15"/>
       <c r="L56" s="16"/>
       <c r="M56" s="17"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20"/>
@@ -10553,8 +10610,8 @@
       <c r="K57" s="15"/>
       <c r="L57" s="16"/>
       <c r="M57" s="17"/>
-      <c r="N57" s="104"/>
-      <c r="O57" s="104"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20"/>
@@ -10607,8 +10664,8 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
+      <c r="N58" s="103"/>
+      <c r="O58" s="103"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
@@ -10816,7 +10873,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C62" s="103"/>
+      <c r="C62" s="101"/>
       <c r="D62" s="14" t="s">
         <v>7</v>
       </c>
@@ -10879,7 +10936,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C63" s="104"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="26"/>
       <c r="E63" s="14" t="s">
         <v>42</v>
@@ -10938,7 +10995,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="102"/>
       <c r="D64" s="26"/>
       <c r="E64" s="14" t="s">
         <v>41</v>
@@ -10995,7 +11052,7 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C65" s="104"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="14" t="s">
         <v>13</v>
       </c>
@@ -11058,7 +11115,7 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C66" s="104"/>
+      <c r="C66" s="102"/>
       <c r="D66" s="54"/>
       <c r="E66" s="14"/>
       <c r="F66" s="15"/>
@@ -11113,7 +11170,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C67" s="104"/>
+      <c r="C67" s="102"/>
       <c r="D67" s="14" t="s">
         <v>8</v>
       </c>
@@ -11176,7 +11233,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C68" s="104"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="54"/>
       <c r="E68" s="14"/>
       <c r="F68" s="15"/>
@@ -11231,7 +11288,7 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C69" s="104"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="14" t="s">
         <v>9</v>
       </c>
@@ -11296,8 +11353,8 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C70" s="104"/>
-      <c r="D70" s="103"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="101"/>
       <c r="E70" s="14" t="s">
         <v>18</v>
       </c>
@@ -11359,8 +11416,8 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
       <c r="E71" s="14" t="s">
         <v>54</v>
       </c>
@@ -11422,8 +11479,8 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
       <c r="E72" s="14" t="s">
         <v>16</v>
       </c>
@@ -11485,8 +11542,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="105"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
       <c r="E73" s="14" t="s">
         <v>17</v>
       </c>
@@ -11608,7 +11665,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="47"/>
-      <c r="D75" s="103"/>
+      <c r="D75" s="101"/>
       <c r="E75" s="14" t="s">
         <v>11</v>
       </c>
@@ -11673,7 +11730,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="47"/>
-      <c r="D76" s="104"/>
+      <c r="D76" s="102"/>
       <c r="E76" s="14" t="s">
         <v>12</v>
       </c>
@@ -11736,7 +11793,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="47"/>
-      <c r="D77" s="105"/>
+      <c r="D77" s="103"/>
       <c r="E77" s="14"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -14263,11 +14320,41 @@
   </sheetData>
   <autoFilter ref="O2:O58"/>
   <customSheetViews>
-    <customSheetView guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
+    <customSheetView guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;C&amp;A</oddHeader>
+      </headerFooter>
+      <autoFilter ref="O2:O60"/>
+    </customSheetView>
+    <customSheetView guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId2"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;C&amp;A</oddHeader>
+      </headerFooter>
+      <autoFilter ref="O2:O60"/>
+    </customSheetView>
+    <customSheetView guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId3"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;C&amp;A</oddHeader>
+      </headerFooter>
+      <autoFilter ref="O2:O56"/>
+    </customSheetView>
+    <customSheetView guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
@@ -14277,54 +14364,31 @@
       <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId2"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
       <autoFilter ref="O2:O56"/>
     </customSheetView>
-    <customSheetView guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+    <customSheetView guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId3"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId6"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
       <autoFilter ref="O2:O56"/>
     </customSheetView>
-    <customSheetView guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
-      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId4"/>
-      <headerFooter alignWithMargins="0">
-        <oddHeader>&amp;C&amp;A</oddHeader>
-      </headerFooter>
-      <autoFilter ref="O2:O56"/>
-    </customSheetView>
-    <customSheetView guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
-      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId5"/>
-      <headerFooter alignWithMargins="0">
-        <oddHeader>&amp;C&amp;A</oddHeader>
-      </headerFooter>
-      <autoFilter ref="O2:O60"/>
-    </customSheetView>
-    <customSheetView guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
-      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId6"/>
-      <headerFooter alignWithMargins="0">
-        <oddHeader>&amp;C&amp;A</oddHeader>
-      </headerFooter>
-      <autoFilter ref="O2:O60"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="N54:N58"/>
+    <mergeCell ref="O54:O58"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="N12:N22"/>
+    <mergeCell ref="N26:N32"/>
+    <mergeCell ref="N36:N46"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
@@ -14337,13 +14401,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C62:C73"/>
     <mergeCell ref="D70:D73"/>
-    <mergeCell ref="AP2:AX2"/>
-    <mergeCell ref="N54:N58"/>
-    <mergeCell ref="O54:O58"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="N12:N22"/>
-    <mergeCell ref="N26:N32"/>
-    <mergeCell ref="N36:N46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -14359,8 +14416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14378,8 +14435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14466,7 +14523,7 @@
       <c r="B7" s="80">
         <v>3</v>
       </c>
-      <c r="C7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="81" t="s">
         <v>103</v>
       </c>
@@ -14483,7 +14540,7 @@
       <c r="B8" s="80">
         <v>4</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="80" t="s">
         <v>105</v>
       </c>
@@ -14500,7 +14557,7 @@
       <c r="B9" s="80">
         <v>5</v>
       </c>
-      <c r="C9" s="118"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="80" t="s">
         <v>106</v>
       </c>
@@ -14517,7 +14574,7 @@
       <c r="B10" s="80">
         <v>6</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="80" t="s">
         <v>107</v>
       </c>
@@ -14555,7 +14612,7 @@
       <c r="B12" s="80">
         <v>8</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="80" t="s">
         <v>110</v>
       </c>
@@ -14591,7 +14648,7 @@
       <c r="B14" s="80">
         <v>10</v>
       </c>
-      <c r="C14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="80" t="s">
         <v>112</v>
       </c>
@@ -14608,7 +14665,7 @@
       <c r="B15" s="80">
         <v>11</v>
       </c>
-      <c r="C15" s="118"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="80" t="s">
         <v>114</v>
       </c>
@@ -14625,7 +14682,7 @@
       <c r="B16" s="80">
         <v>12</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="81" t="s">
         <v>116</v>
       </c>
@@ -14670,7 +14727,7 @@
       <c r="E18" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="119"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="80" t="s">
         <v>130</v>
       </c>
@@ -14710,7 +14767,7 @@
       <c r="E20" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="80" t="s">
         <v>130</v>
       </c>
@@ -14729,7 +14786,7 @@
       <c r="E21" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="118"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="80" t="s">
         <v>130</v>
       </c>
@@ -14748,7 +14805,7 @@
       <c r="E22" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="118"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="80" t="s">
         <v>130</v>
       </c>
@@ -14767,7 +14824,7 @@
       <c r="E23" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="118"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="80" t="s">
         <v>130</v>
       </c>
@@ -14786,7 +14843,7 @@
       <c r="E24" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="119"/>
+      <c r="F24" s="118"/>
       <c r="G24" s="80" t="s">
         <v>130</v>
       </c>
@@ -14809,5 +14866,6 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/长龙航空-实施计划.xlsx
+++ b/长龙航空-实施计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="项目实施计划" sheetId="1" r:id="rId1"/>
@@ -38,20 +38,20 @@
     <definedName name="Z_EA12A2DB_14AE_4B52_98B2_167B88CF1EFE_.wvu.FilterData" localSheetId="0" hidden="1">项目实施计划!$O$2:$O$58</definedName>
     <definedName name="Z_EA12A2DB_14AE_4B52_98B2_167B88CF1EFE_.wvu.PrintArea" localSheetId="0" hidden="1">项目实施计划!$C$2:$AX$122</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="王登峰 - 个人视图" guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="746" activeSheetId="8"/>
+    <customWorkbookView name="linkage - 个人视图" guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="1"/>
+    <customWorkbookView name="zhanghc - 个人视图" guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="7"/>
+    <customWorkbookView name="XTZ - 个人视图" guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="10"/>
+    <customWorkbookView name="Microsoft - 个人视图" guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="786" tabRatio="779" activeSheetId="11"/>
     <customWorkbookView name="周顺 - 个人视图" guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="531" tabRatio="779" activeSheetId="12"/>
-    <customWorkbookView name="Microsoft - 个人视图" guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="786" tabRatio="779" activeSheetId="11"/>
-    <customWorkbookView name="XTZ - 个人视图" guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="10"/>
-    <customWorkbookView name="zhanghc - 个人视图" guid="{E52351DD-0D3F-4EDC-878A-A2CFE8486AB8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="7"/>
-    <customWorkbookView name="linkage - 个人视图" guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="786" tabRatio="746" activeSheetId="1"/>
-    <customWorkbookView name="王登峰 - 个人视图" guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="746" activeSheetId="8"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
   <si>
     <t>主担当</t>
     <phoneticPr fontId="4"/>
@@ -1349,11 +1349,23 @@
     <t>前台T2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>用户中心相关表</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>接口文档有些出入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>html待开发</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]General"/>
@@ -1553,7 +1565,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1614,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <bgColor theme="2" tint="-0.24994659260841701"/>
       </patternFill>
     </fill>
   </fills>
@@ -2709,7 +2726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2971,6 +2988,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2980,6 +3003,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3001,21 +3033,6 @@
     <xf numFmtId="9" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3034,6 +3051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="265">
     <cellStyle name="Excel Built-in Hyperlink" xfId="7"/>
@@ -3304,6 +3322,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7086,7 +7172,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7380,15 +7466,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7400,7 +7486,7 @@
     <col min="14" max="14" width="15" style="5" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="5" customWidth="1"/>
     <col min="16" max="16" width="6.625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" style="5" customWidth="1"/>
     <col min="18" max="50" width="2.25" style="39" customWidth="1"/>
     <col min="51" max="16384" width="9" style="5"/>
   </cols>
@@ -7458,94 +7544,94 @@
       <c r="AX1" s="4"/>
     </row>
     <row r="2" spans="1:51" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="109" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="104" t="s">
+      <c r="N2" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="110" t="s">
+      <c r="P2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="104" t="s">
+      <c r="Q2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="107">
+      <c r="R2" s="112">
         <v>41463</v>
       </c>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="111">
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="101">
         <v>41487</v>
       </c>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
-      <c r="AX2" s="112"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
       <c r="AY2" s="6"/>
     </row>
     <row r="3" spans="1:51" s="7" customFormat="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="105"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="110"/>
       <c r="R3" s="8">
         <v>8</v>
       </c>
@@ -7722,10 +7808,12 @@
       <c r="O5" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="18">
+        <v>1</v>
+      </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="122"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
@@ -7778,11 +7866,13 @@
       <c r="O6" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="P6" s="18"/>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
       <c r="W6" s="57"/>
@@ -7834,10 +7924,14 @@
       <c r="O7" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="S7" s="122"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -7890,7 +7984,9 @@
       <c r="O8" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="18">
+        <v>1</v>
+      </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
@@ -7946,10 +8042,14 @@
       <c r="O9" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="S9" s="122"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -8108,17 +8208,19 @@
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="113" t="s">
+      <c r="N12" s="106" t="s">
         <v>179</v>
       </c>
       <c r="O12" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="P12" s="18"/>
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
       <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="57"/>
@@ -8166,15 +8268,19 @@
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="114"/>
+      <c r="N13" s="107"/>
       <c r="O13" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="57"/>
@@ -8222,7 +8328,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="114"/>
+      <c r="N14" s="107"/>
       <c r="O14" s="48" t="s">
         <v>191</v>
       </c>
@@ -8278,7 +8384,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="114"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="48" t="s">
         <v>191</v>
       </c>
@@ -8334,7 +8440,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="114"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="48" t="s">
         <v>191</v>
       </c>
@@ -8390,7 +8496,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="114"/>
+      <c r="N17" s="107"/>
       <c r="O17" s="48" t="s">
         <v>191</v>
       </c>
@@ -8446,7 +8552,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="114"/>
+      <c r="N18" s="107"/>
       <c r="O18" s="48" t="s">
         <v>191</v>
       </c>
@@ -8502,7 +8608,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="114"/>
+      <c r="N19" s="107"/>
       <c r="O19" s="48" t="s">
         <v>191</v>
       </c>
@@ -8558,7 +8664,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="114"/>
+      <c r="N20" s="107"/>
       <c r="O20" s="48" t="s">
         <v>191</v>
       </c>
@@ -8614,7 +8720,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="114"/>
+      <c r="N21" s="107"/>
       <c r="O21" s="48" t="s">
         <v>191</v>
       </c>
@@ -8670,7 +8776,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="115"/>
+      <c r="N22" s="108"/>
       <c r="O22" s="48" t="s">
         <v>191</v>
       </c>
@@ -8890,7 +8996,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="101" t="s">
+      <c r="N26" s="103" t="s">
         <v>178</v>
       </c>
       <c r="O26" s="48"/>
@@ -8946,7 +9052,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="102"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="48" t="s">
         <v>173</v>
       </c>
@@ -9002,7 +9108,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="102"/>
+      <c r="N28" s="104"/>
       <c r="O28" s="48" t="s">
         <v>173</v>
       </c>
@@ -9058,7 +9164,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="102"/>
+      <c r="N29" s="104"/>
       <c r="O29" s="48" t="s">
         <v>174</v>
       </c>
@@ -9114,7 +9220,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="102"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="48" t="s">
         <v>174</v>
       </c>
@@ -9170,7 +9276,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="102"/>
+      <c r="N31" s="104"/>
       <c r="O31" s="48" t="s">
         <v>173</v>
       </c>
@@ -9226,7 +9332,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="103"/>
+      <c r="N32" s="105"/>
       <c r="O32" s="48" t="s">
         <v>174</v>
       </c>
@@ -9446,7 +9552,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="16"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="101"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="48" t="s">
         <v>140</v>
       </c>
@@ -9502,7 +9608,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="16"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="102"/>
+      <c r="N37" s="104"/>
       <c r="O37" s="48"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="19"/>
@@ -9556,7 +9662,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="102"/>
+      <c r="N38" s="104"/>
       <c r="O38" s="48"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="19"/>
@@ -9610,7 +9716,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="102"/>
+      <c r="N39" s="104"/>
       <c r="O39" s="48" t="s">
         <v>173</v>
       </c>
@@ -9666,7 +9772,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="16"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="102"/>
+      <c r="N40" s="104"/>
       <c r="O40" s="48" t="s">
         <v>173</v>
       </c>
@@ -9722,7 +9828,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="16"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="102"/>
+      <c r="N41" s="104"/>
       <c r="O41" s="48" t="s">
         <v>174</v>
       </c>
@@ -9778,7 +9884,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="17"/>
-      <c r="N42" s="102"/>
+      <c r="N42" s="104"/>
       <c r="O42" s="48" t="s">
         <v>174</v>
       </c>
@@ -9834,7 +9940,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
-      <c r="N43" s="102"/>
+      <c r="N43" s="104"/>
       <c r="O43" s="48" t="s">
         <v>173</v>
       </c>
@@ -9890,7 +9996,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="16"/>
       <c r="M44" s="17"/>
-      <c r="N44" s="102"/>
+      <c r="N44" s="104"/>
       <c r="O44" s="48" t="s">
         <v>174</v>
       </c>
@@ -9946,7 +10052,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="16"/>
       <c r="M45" s="17"/>
-      <c r="N45" s="102"/>
+      <c r="N45" s="104"/>
       <c r="O45" s="48" t="s">
         <v>149</v>
       </c>
@@ -10002,7 +10108,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="103"/>
+      <c r="N46" s="105"/>
       <c r="O46" s="48" t="s">
         <v>140</v>
       </c>
@@ -10166,7 +10272,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="16"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="101" t="s">
+      <c r="N49" s="103" t="s">
         <v>152</v>
       </c>
       <c r="O49" s="82" t="s">
@@ -10224,7 +10330,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="102"/>
+      <c r="N50" s="104"/>
       <c r="O50" s="48" t="s">
         <v>148</v>
       </c>
@@ -10280,7 +10386,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
-      <c r="N51" s="103"/>
+      <c r="N51" s="105"/>
       <c r="O51" s="48" t="s">
         <v>140</v>
       </c>
@@ -10444,10 +10550,10 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="101" t="s">
+      <c r="N54" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="O54" s="101" t="s">
+      <c r="O54" s="103" t="s">
         <v>147</v>
       </c>
       <c r="P54" s="18"/>
@@ -10502,8 +10608,8 @@
       <c r="K55" s="15"/>
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
-      <c r="N55" s="102"/>
-      <c r="O55" s="102"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="20"/>
@@ -10556,8 +10662,8 @@
       <c r="K56" s="15"/>
       <c r="L56" s="16"/>
       <c r="M56" s="17"/>
-      <c r="N56" s="102"/>
-      <c r="O56" s="102"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20"/>
@@ -10610,8 +10716,8 @@
       <c r="K57" s="15"/>
       <c r="L57" s="16"/>
       <c r="M57" s="17"/>
-      <c r="N57" s="102"/>
-      <c r="O57" s="102"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20"/>
@@ -10664,8 +10770,8 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="103"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="20"/>
@@ -10873,7 +10979,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C62" s="101"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="14" t="s">
         <v>7</v>
       </c>
@@ -10936,7 +11042,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C63" s="102"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="26"/>
       <c r="E63" s="14" t="s">
         <v>42</v>
@@ -10995,7 +11101,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C64" s="102"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="26"/>
       <c r="E64" s="14" t="s">
         <v>41</v>
@@ -11052,7 +11158,7 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C65" s="102"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="14" t="s">
         <v>13</v>
       </c>
@@ -11115,7 +11221,7 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C66" s="102"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="54"/>
       <c r="E66" s="14"/>
       <c r="F66" s="15"/>
@@ -11170,7 +11276,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C67" s="102"/>
+      <c r="C67" s="104"/>
       <c r="D67" s="14" t="s">
         <v>8</v>
       </c>
@@ -11233,7 +11339,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C68" s="102"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="54"/>
       <c r="E68" s="14"/>
       <c r="F68" s="15"/>
@@ -11288,7 +11394,7 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C69" s="102"/>
+      <c r="C69" s="104"/>
       <c r="D69" s="14" t="s">
         <v>9</v>
       </c>
@@ -11353,8 +11459,8 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C70" s="102"/>
-      <c r="D70" s="101"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="103"/>
       <c r="E70" s="14" t="s">
         <v>18</v>
       </c>
@@ -11416,8 +11522,8 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C71" s="102"/>
-      <c r="D71" s="102"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
       <c r="E71" s="14" t="s">
         <v>54</v>
       </c>
@@ -11479,8 +11585,8 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C72" s="102"/>
-      <c r="D72" s="102"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
       <c r="E72" s="14" t="s">
         <v>16</v>
       </c>
@@ -11542,8 +11648,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="14" t="s">
         <v>17</v>
       </c>
@@ -11665,7 +11771,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="47"/>
-      <c r="D75" s="101"/>
+      <c r="D75" s="103"/>
       <c r="E75" s="14" t="s">
         <v>11</v>
       </c>
@@ -11730,7 +11836,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="47"/>
-      <c r="D76" s="102"/>
+      <c r="D76" s="104"/>
       <c r="E76" s="14" t="s">
         <v>12</v>
       </c>
@@ -11793,7 +11899,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="47"/>
-      <c r="D77" s="103"/>
+      <c r="D77" s="105"/>
       <c r="E77" s="14"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -14320,31 +14426,21 @@
   </sheetData>
   <autoFilter ref="O2:O58"/>
   <customSheetViews>
-    <customSheetView guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+    <customSheetView guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
-      <autoFilter ref="O2:O60"/>
+      <autoFilter ref="O2:O56"/>
     </customSheetView>
-    <customSheetView guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+    <customSheetView guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId2"/>
-      <headerFooter alignWithMargins="0">
-        <oddHeader>&amp;C&amp;A</oddHeader>
-      </headerFooter>
-      <autoFilter ref="O2:O60"/>
-    </customSheetView>
-    <customSheetView guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
-      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
@@ -14354,41 +14450,44 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId3"/>
+      <headerFooter alignWithMargins="0">
+        <oddHeader>&amp;C&amp;A</oddHeader>
+      </headerFooter>
+      <autoFilter ref="O2:O56"/>
+    </customSheetView>
+    <customSheetView guid="{26EDC279-46C8-4132-A6E8-33D6271EDEE0}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
       <autoFilter ref="O2:O56"/>
     </customSheetView>
-    <customSheetView guid="{E06DC107-8235-4212-A2A0-A39603AC1744}" fitToPage="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+    <customSheetView guid="{EA12A2DB-14AE-4B52-98B2-167B88CF1EFE}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
-      <autoFilter ref="O2:O56"/>
+      <autoFilter ref="O2:O60"/>
     </customSheetView>
-    <customSheetView guid="{D0A5CD0B-CBBA-4AF7-8A5D-E96195999FD7}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
+    <customSheetView guid="{3EB9B1B7-5595-4C98-8D76-F5935A747165}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
       <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId6"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;C&amp;A</oddHeader>
       </headerFooter>
-      <autoFilter ref="O2:O56"/>
+      <autoFilter ref="O2:O60"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="AP2:AX2"/>
-    <mergeCell ref="N54:N58"/>
-    <mergeCell ref="O54:O58"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="N12:N22"/>
-    <mergeCell ref="N26:N32"/>
-    <mergeCell ref="N36:N46"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
@@ -14401,6 +14500,13 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C62:C73"/>
     <mergeCell ref="D70:D73"/>
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="N54:N58"/>
+    <mergeCell ref="O54:O58"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="N12:N22"/>
+    <mergeCell ref="N26:N32"/>
+    <mergeCell ref="N36:N46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0"/>
@@ -14413,11 +14519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14432,7 +14538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
